--- a/Excel/BebelConfig.xlsx
+++ b/Excel/BebelConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="J3" authorId="0">
+    <comment ref="P3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -61,24 +61,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="16">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>Type</t>
+    <t>Start</t>
   </si>
   <si>
-    <t>Position</t>
+    <t>End</t>
   </si>
   <si>
-    <t>AttrId</t>
+    <t>ItemType</t>
   </si>
   <si>
-    <t>AttrValue</t>
+    <t>ItemId</t>
   </si>
   <si>
-    <t>FeeRise</t>
+    <t>ItemCount</t>
+  </si>
+  <si>
+    <t>ItemType1</t>
+  </si>
+  <si>
+    <t>ItemId1</t>
+  </si>
+  <si>
+    <t>ItemCount1</t>
+  </si>
+  <si>
+    <t>ItemType2</t>
+  </si>
+  <si>
+    <t>ItemId2</t>
+  </si>
+  <si>
+    <t>ItemCount2</t>
   </si>
   <si>
     <t>#des</t>
@@ -90,58 +108,7 @@
     <t>int</t>
   </si>
   <si>
-    <t>攻击</t>
-  </si>
-  <si>
-    <t>防御</t>
-  </si>
-  <si>
-    <t>血量</t>
-  </si>
-  <si>
-    <t>物攻</t>
-  </si>
-  <si>
-    <t>法攻</t>
-  </si>
-  <si>
-    <t>道攻</t>
-  </si>
-  <si>
-    <t>幸运</t>
-  </si>
-  <si>
-    <t>防御倍率</t>
-  </si>
-  <si>
-    <t>增伤</t>
-  </si>
-  <si>
-    <t>生命倍率</t>
-  </si>
-  <si>
-    <t>物伤加成</t>
-  </si>
-  <si>
-    <t>魔伤加成</t>
-  </si>
-  <si>
-    <t>道伤加成</t>
-  </si>
-  <si>
-    <t>物攻倍率</t>
-  </si>
-  <si>
-    <t>魔攻倍率</t>
-  </si>
-  <si>
-    <t>道攻倍率</t>
-  </si>
-  <si>
-    <t>攻击倍率</t>
-  </si>
-  <si>
-    <t>增伤倍率</t>
+    <t>1-9 精炼石 10-90 魂环碎片 100 特戒自选</t>
   </si>
 </sst>
 </file>
@@ -154,7 +121,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,6 +137,12 @@
     <font>
       <b/>
       <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -318,12 +291,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -653,143 +626,144 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1110,10 +1084,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" customHeight="1"/>
@@ -1122,35 +1096,50 @@
     <col min="2" max="2" width="9" style="2"/>
     <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
     <col min="4" max="5" width="12.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.25" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="2" customWidth="1"/>
-    <col min="9" max="9" width="34.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="30.125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="9.625" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="2"/>
+    <col min="6" max="7" width="14.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14.125" style="2" customWidth="1"/>
+    <col min="10" max="11" width="14.5" style="2" customWidth="1"/>
+    <col min="12" max="12" width="14.125" style="2" customWidth="1"/>
+    <col min="13" max="14" width="14.5" style="2" customWidth="1"/>
+    <col min="15" max="15" width="34.625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="30.125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8.125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="9.625" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:12">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
-    </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:12">
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+    </row>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-    </row>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:12">
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
@@ -1171,18 +1160,36 @@
       <c r="H3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-    </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:12">
+      <c r="J3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>1</v>
@@ -1199,38 +1206,74 @@
       <c r="H4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-    </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:12">
+      <c r="I4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:18">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-    </row>
-    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:9">
+        <v>14</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+    </row>
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C6" s="1">
         <v>1</v>
       </c>
@@ -1238,688 +1281,568 @@
         <v>1</v>
       </c>
       <c r="E6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F6" s="1">
+        <v>5</v>
+      </c>
+      <c r="G6" s="4">
+        <v>4002</v>
+      </c>
+      <c r="H6" s="1">
+        <v>100000</v>
+      </c>
+      <c r="I6" s="1">
+        <v>5</v>
+      </c>
+      <c r="J6" s="1">
+        <v>4001</v>
+      </c>
+      <c r="K6" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L6" s="1">
+        <v>4</v>
+      </c>
+      <c r="M6" s="1">
+        <v>22</v>
+      </c>
+      <c r="N6" s="1">
         <v>1</v>
       </c>
-      <c r="F6" s="1">
-        <v>14</v>
-      </c>
-      <c r="G6" s="1">
-        <v>100</v>
-      </c>
-      <c r="H6" s="1">
-        <v>300</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:9">
+      <c r="O6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C7" s="1">
         <v>2</v>
       </c>
       <c r="D7" s="1">
+        <f t="shared" ref="D7:D15" si="0">E6+1</f>
+        <v>1001</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2000</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5</v>
+      </c>
+      <c r="G7" s="4">
+        <v>4002</v>
+      </c>
+      <c r="H7" s="1">
+        <v>200000</v>
+      </c>
+      <c r="I7" s="1">
+        <v>5</v>
+      </c>
+      <c r="J7" s="1">
+        <v>4001</v>
+      </c>
+      <c r="K7" s="1">
+        <v>20000</v>
+      </c>
+      <c r="L7" s="1">
+        <v>4</v>
+      </c>
+      <c r="M7" s="1">
+        <v>22</v>
+      </c>
+      <c r="N7" s="1">
         <v>1</v>
       </c>
-      <c r="E7" s="1">
-        <v>2</v>
-      </c>
-      <c r="F7" s="1">
-        <v>16</v>
-      </c>
-      <c r="G7" s="1">
-        <v>100</v>
-      </c>
-      <c r="H7" s="1">
-        <v>300</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:9">
+      <c r="O7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C8" s="1">
         <v>3</v>
       </c>
       <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>2001</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3000</v>
+      </c>
+      <c r="F8" s="1">
+        <v>5</v>
+      </c>
+      <c r="G8" s="4">
+        <v>4002</v>
+      </c>
+      <c r="H8" s="1">
+        <v>300000</v>
+      </c>
+      <c r="I8" s="1">
+        <v>5</v>
+      </c>
+      <c r="J8" s="1">
+        <v>4001</v>
+      </c>
+      <c r="K8" s="1">
+        <v>30000</v>
+      </c>
+      <c r="L8" s="1">
+        <v>4</v>
+      </c>
+      <c r="M8" s="1">
+        <v>22</v>
+      </c>
+      <c r="N8" s="1">
         <v>1</v>
       </c>
-      <c r="E8" s="1">
-        <v>3</v>
-      </c>
-      <c r="F8" s="1">
+      <c r="O8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="1">
-        <v>100</v>
-      </c>
-      <c r="H8" s="1">
-        <v>300</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" customHeight="1" spans="3:9">
+    </row>
+    <row r="9" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C9" s="1">
         <v>4</v>
       </c>
       <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>3001</v>
+      </c>
+      <c r="E9" s="1">
+        <v>4000</v>
+      </c>
+      <c r="F9" s="1">
+        <v>5</v>
+      </c>
+      <c r="G9" s="4">
+        <v>4002</v>
+      </c>
+      <c r="H9" s="1">
+        <v>400000</v>
+      </c>
+      <c r="I9" s="1">
+        <v>5</v>
+      </c>
+      <c r="J9" s="1">
+        <v>4001</v>
+      </c>
+      <c r="K9" s="1">
+        <v>40000</v>
+      </c>
+      <c r="L9" s="1">
+        <v>4</v>
+      </c>
+      <c r="M9" s="1">
+        <v>22</v>
+      </c>
+      <c r="N9" s="1">
         <v>1</v>
       </c>
-      <c r="E9" s="1">
+      <c r="O9" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C10" s="1">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>4001</v>
+      </c>
+      <c r="E10" s="1">
+        <v>5000</v>
+      </c>
+      <c r="F10" s="1">
+        <v>5</v>
+      </c>
+      <c r="G10" s="4">
+        <v>4002</v>
+      </c>
+      <c r="H10" s="1">
+        <v>500000</v>
+      </c>
+      <c r="I10" s="1">
+        <v>5</v>
+      </c>
+      <c r="J10" s="1">
+        <v>4001</v>
+      </c>
+      <c r="K10" s="1">
+        <v>50000</v>
+      </c>
+      <c r="L10" s="1">
         <v>4</v>
       </c>
-      <c r="F9" s="1">
-        <v>26</v>
-      </c>
-      <c r="G9" s="1">
-        <v>100</v>
-      </c>
-      <c r="H9" s="1">
-        <v>300</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" customHeight="1" spans="3:9">
-      <c r="C10" s="1">
-        <v>5</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="M10" s="1">
+        <v>22</v>
+      </c>
+      <c r="N10" s="1">
         <v>1</v>
       </c>
-      <c r="E10" s="1">
-        <v>5</v>
-      </c>
-      <c r="F10" s="1">
-        <v>27</v>
-      </c>
-      <c r="G10" s="1">
-        <v>100</v>
-      </c>
-      <c r="H10" s="1">
-        <v>300</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" customHeight="1" spans="3:9">
+      <c r="O10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C11" s="1">
         <v>6</v>
       </c>
       <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>5001</v>
+      </c>
+      <c r="E11" s="1">
+        <v>6000</v>
+      </c>
+      <c r="F11" s="1">
+        <v>5</v>
+      </c>
+      <c r="G11" s="4">
+        <v>4002</v>
+      </c>
+      <c r="H11" s="1">
+        <v>600000</v>
+      </c>
+      <c r="I11" s="1">
+        <v>5</v>
+      </c>
+      <c r="J11" s="1">
+        <v>4001</v>
+      </c>
+      <c r="K11" s="1">
+        <v>60000</v>
+      </c>
+      <c r="L11" s="1">
+        <v>4</v>
+      </c>
+      <c r="M11" s="1">
+        <v>22</v>
+      </c>
+      <c r="N11" s="1">
         <v>1</v>
       </c>
-      <c r="E11" s="1">
-        <v>6</v>
-      </c>
-      <c r="F11" s="1">
-        <v>28</v>
-      </c>
-      <c r="G11" s="1">
-        <v>100</v>
-      </c>
-      <c r="H11" s="1">
-        <v>300</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" customHeight="1" spans="3:9">
+      <c r="O11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C12" s="1">
         <v>7</v>
       </c>
       <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>6001</v>
+      </c>
+      <c r="E12" s="1">
+        <v>7000</v>
+      </c>
+      <c r="F12" s="1">
+        <v>5</v>
+      </c>
+      <c r="G12" s="4">
+        <v>4002</v>
+      </c>
+      <c r="H12" s="1">
+        <v>700000</v>
+      </c>
+      <c r="I12" s="1">
+        <v>5</v>
+      </c>
+      <c r="J12" s="1">
+        <v>4001</v>
+      </c>
+      <c r="K12" s="1">
+        <v>70000</v>
+      </c>
+      <c r="L12" s="1">
+        <v>4</v>
+      </c>
+      <c r="M12" s="1">
+        <v>22</v>
+      </c>
+      <c r="N12" s="1">
         <v>1</v>
       </c>
-      <c r="E12" s="1">
-        <v>7</v>
-      </c>
-      <c r="F12" s="1">
-        <v>14</v>
-      </c>
-      <c r="G12" s="1">
-        <v>100</v>
-      </c>
-      <c r="H12" s="1">
-        <v>300</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" customHeight="1" spans="3:9">
+      <c r="O12" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C13" s="1">
         <v>8</v>
       </c>
       <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>7001</v>
+      </c>
+      <c r="E13" s="1">
+        <v>8000</v>
+      </c>
+      <c r="F13" s="1">
+        <v>5</v>
+      </c>
+      <c r="G13" s="4">
+        <v>4002</v>
+      </c>
+      <c r="H13" s="1">
+        <v>800000</v>
+      </c>
+      <c r="I13" s="1">
+        <v>5</v>
+      </c>
+      <c r="J13" s="1">
+        <v>4001</v>
+      </c>
+      <c r="K13" s="1">
+        <v>80000</v>
+      </c>
+      <c r="L13" s="1">
+        <v>4</v>
+      </c>
+      <c r="M13" s="1">
+        <v>22</v>
+      </c>
+      <c r="N13" s="1">
         <v>1</v>
       </c>
-      <c r="E13" s="1">
-        <v>8</v>
-      </c>
-      <c r="F13" s="1">
-        <v>16</v>
-      </c>
-      <c r="G13" s="1">
-        <v>100</v>
-      </c>
-      <c r="H13" s="1">
-        <v>300</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" customHeight="1" spans="3:9">
+      <c r="O13" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" customHeight="1" spans="3:15">
       <c r="C14" s="1">
         <v>9</v>
       </c>
       <c r="D14" s="1">
+        <f t="shared" si="0"/>
+        <v>8001</v>
+      </c>
+      <c r="E14" s="1">
+        <v>9000</v>
+      </c>
+      <c r="F14" s="1">
+        <v>5</v>
+      </c>
+      <c r="G14" s="4">
+        <v>4002</v>
+      </c>
+      <c r="H14" s="1">
+        <v>900000</v>
+      </c>
+      <c r="I14" s="1">
+        <v>5</v>
+      </c>
+      <c r="J14" s="1">
+        <v>4001</v>
+      </c>
+      <c r="K14" s="1">
+        <v>90000</v>
+      </c>
+      <c r="L14" s="1">
+        <v>4</v>
+      </c>
+      <c r="M14" s="1">
+        <v>22</v>
+      </c>
+      <c r="N14" s="1">
         <v>1</v>
       </c>
-      <c r="E14" s="1">
+      <c r="O14" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" customHeight="1" spans="3:15">
+      <c r="C15" s="1">
         <v>9</v>
       </c>
-      <c r="F14" s="1">
+      <c r="D15" s="1">
+        <f t="shared" si="0"/>
+        <v>9001</v>
+      </c>
+      <c r="E15" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F15" s="1">
+        <v>5</v>
+      </c>
+      <c r="G15" s="4">
+        <v>4002</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="I15" s="1">
+        <v>5</v>
+      </c>
+      <c r="J15" s="1">
+        <v>4001</v>
+      </c>
+      <c r="K15" s="1">
+        <v>100000</v>
+      </c>
+      <c r="L15" s="1">
+        <v>4</v>
+      </c>
+      <c r="M15" s="1">
+        <v>22</v>
+      </c>
+      <c r="N15" s="1">
+        <v>1</v>
+      </c>
+      <c r="O15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="1">
-        <v>100</v>
-      </c>
-      <c r="H14" s="1">
-        <v>300</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" customHeight="1"/>
-    <row r="16" s="1" customFormat="1" customHeight="1" spans="3:9">
-      <c r="C16" s="1">
-        <v>10</v>
-      </c>
-      <c r="D16" s="1">
-        <v>2</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0</v>
-      </c>
-      <c r="F16" s="1">
-        <v>7</v>
-      </c>
-      <c r="G16" s="1">
-        <v>10</v>
-      </c>
-      <c r="H16" s="1">
-        <v>3000</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1" customHeight="1" spans="3:9">
-      <c r="C17" s="1">
-        <v>11</v>
-      </c>
-      <c r="D17" s="1">
-        <v>2</v>
-      </c>
-      <c r="E17" s="1">
-        <f t="shared" ref="E17:E35" si="0">E16+100</f>
-        <v>100</v>
-      </c>
-      <c r="F17" s="1">
-        <v>2002</v>
-      </c>
-      <c r="G17" s="1">
-        <v>10</v>
-      </c>
-      <c r="H17" s="1">
-        <v>3000</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" customHeight="1" spans="3:9">
-      <c r="C18" s="1">
-        <v>12</v>
-      </c>
-      <c r="D18" s="1">
-        <v>2</v>
-      </c>
-      <c r="E18" s="1">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="F18" s="1">
-        <v>12</v>
-      </c>
-      <c r="G18" s="1">
-        <v>10</v>
-      </c>
-      <c r="H18" s="1">
-        <v>3000</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" s="1" customFormat="1" customHeight="1" spans="3:9">
-      <c r="C19" s="1">
-        <v>13</v>
-      </c>
-      <c r="D19" s="1">
-        <v>2</v>
-      </c>
-      <c r="E19" s="1">
-        <f t="shared" si="0"/>
-        <v>300</v>
-      </c>
-      <c r="F19" s="1">
-        <v>2003</v>
-      </c>
-      <c r="G19" s="1">
-        <v>10</v>
-      </c>
-      <c r="H19" s="1">
-        <v>3000</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="3:9">
-      <c r="C20" s="1">
-        <v>14</v>
-      </c>
-      <c r="D20" s="1">
-        <v>2</v>
-      </c>
-      <c r="E20" s="1">
-        <f t="shared" si="0"/>
-        <v>400</v>
-      </c>
-      <c r="F20" s="2">
-        <v>33</v>
-      </c>
-      <c r="G20" s="1">
-        <v>10</v>
-      </c>
-      <c r="H20" s="1">
-        <v>3000</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="3:9">
-      <c r="C21" s="1">
-        <v>15</v>
-      </c>
-      <c r="D21" s="1">
-        <v>2</v>
-      </c>
-      <c r="E21" s="1">
-        <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
-      <c r="F21" s="2">
-        <v>2002</v>
-      </c>
-      <c r="G21" s="1">
-        <v>10</v>
-      </c>
-      <c r="H21" s="1">
-        <v>3000</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" spans="3:9">
-      <c r="C22" s="1">
-        <v>16</v>
-      </c>
-      <c r="D22" s="1">
-        <v>2</v>
-      </c>
-      <c r="E22" s="1">
-        <f t="shared" si="0"/>
-        <v>600</v>
-      </c>
-      <c r="F22" s="2">
-        <v>34</v>
-      </c>
-      <c r="G22" s="1">
-        <v>10</v>
-      </c>
-      <c r="H22" s="1">
-        <v>3000</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" spans="3:9">
-      <c r="C23" s="1">
-        <v>17</v>
-      </c>
-      <c r="D23" s="1">
-        <v>2</v>
-      </c>
-      <c r="E23" s="1">
-        <f t="shared" si="0"/>
-        <v>700</v>
-      </c>
-      <c r="F23" s="2">
-        <v>2003</v>
-      </c>
-      <c r="G23" s="1">
-        <v>10</v>
-      </c>
-      <c r="H23" s="1">
-        <v>3000</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" customHeight="1" spans="3:9">
-      <c r="C24" s="1">
-        <v>18</v>
-      </c>
-      <c r="D24" s="1">
-        <v>2</v>
-      </c>
-      <c r="E24" s="1">
-        <f t="shared" si="0"/>
-        <v>800</v>
-      </c>
-      <c r="F24" s="2">
-        <v>35</v>
-      </c>
-      <c r="G24" s="1">
-        <v>10</v>
-      </c>
-      <c r="H24" s="1">
-        <v>3000</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" customHeight="1" spans="3:9">
-      <c r="C25" s="1">
-        <v>19</v>
-      </c>
-      <c r="D25" s="1">
-        <v>2</v>
-      </c>
-      <c r="E25" s="1">
-        <f t="shared" si="0"/>
-        <v>900</v>
-      </c>
-      <c r="F25" s="2">
-        <v>2002</v>
-      </c>
-      <c r="G25" s="1">
-        <v>10</v>
-      </c>
-      <c r="H25" s="1">
-        <v>3000</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" customHeight="1" spans="3:9">
-      <c r="C26" s="1">
-        <v>20</v>
-      </c>
-      <c r="D26" s="1">
-        <v>2</v>
-      </c>
-      <c r="E26" s="1">
-        <f t="shared" si="0"/>
-        <v>1000</v>
-      </c>
-      <c r="F26" s="2">
-        <v>2004</v>
-      </c>
-      <c r="G26" s="1">
-        <v>10</v>
-      </c>
-      <c r="H26" s="1">
-        <v>3000</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" customHeight="1" spans="3:9">
-      <c r="C27" s="1">
-        <v>21</v>
-      </c>
-      <c r="D27" s="1">
-        <v>2</v>
-      </c>
-      <c r="E27" s="1">
-        <f t="shared" si="0"/>
-        <v>1100</v>
-      </c>
-      <c r="F27" s="2">
-        <v>2003</v>
-      </c>
-      <c r="G27" s="1">
-        <v>10</v>
-      </c>
-      <c r="H27" s="1">
-        <v>3000</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" customHeight="1" spans="3:9">
-      <c r="C28" s="1">
-        <v>22</v>
-      </c>
-      <c r="D28" s="1">
-        <v>2</v>
-      </c>
-      <c r="E28" s="1">
-        <f t="shared" si="0"/>
-        <v>1200</v>
-      </c>
-      <c r="F28" s="2">
-        <v>2005</v>
-      </c>
-      <c r="G28" s="1">
-        <v>10</v>
-      </c>
-      <c r="H28" s="1">
-        <v>3000</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" customHeight="1" spans="3:9">
-      <c r="C29" s="1">
-        <v>23</v>
-      </c>
-      <c r="D29" s="1">
-        <v>2</v>
-      </c>
-      <c r="E29" s="1">
-        <f t="shared" si="0"/>
-        <v>1300</v>
-      </c>
-      <c r="F29" s="2">
-        <v>2002</v>
-      </c>
-      <c r="G29" s="1">
-        <v>10</v>
-      </c>
-      <c r="H29" s="1">
-        <v>3000</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" customHeight="1" spans="3:9">
-      <c r="C30" s="1">
-        <v>24</v>
-      </c>
-      <c r="D30" s="1">
-        <v>2</v>
-      </c>
-      <c r="E30" s="1">
-        <f t="shared" si="0"/>
-        <v>1400</v>
-      </c>
-      <c r="F30" s="2">
-        <v>2006</v>
-      </c>
-      <c r="G30" s="1">
-        <v>10</v>
-      </c>
-      <c r="H30" s="1">
-        <v>3000</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" customHeight="1" spans="3:9">
-      <c r="C31" s="1">
-        <v>25</v>
-      </c>
-      <c r="D31" s="1">
-        <v>2</v>
-      </c>
-      <c r="E31" s="1">
-        <f t="shared" si="0"/>
-        <v>1500</v>
-      </c>
-      <c r="F31" s="2">
-        <v>2003</v>
-      </c>
-      <c r="G31" s="1">
-        <v>10</v>
-      </c>
-      <c r="H31" s="1">
-        <v>3000</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" customHeight="1" spans="3:9">
-      <c r="C32" s="1">
-        <v>26</v>
-      </c>
-      <c r="D32" s="1">
-        <v>2</v>
-      </c>
-      <c r="E32" s="1">
-        <f t="shared" si="0"/>
-        <v>1600</v>
-      </c>
-      <c r="F32" s="2">
-        <v>2001</v>
-      </c>
-      <c r="G32" s="1">
-        <v>10</v>
-      </c>
-      <c r="H32" s="1">
-        <v>3000</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" customHeight="1" spans="3:9">
-      <c r="C33" s="1">
-        <v>27</v>
-      </c>
-      <c r="D33" s="1">
-        <v>2</v>
-      </c>
-      <c r="E33" s="1">
-        <f t="shared" si="0"/>
-        <v>1700</v>
-      </c>
-      <c r="F33" s="2">
-        <v>2002</v>
-      </c>
-      <c r="G33" s="1">
-        <v>10</v>
-      </c>
-      <c r="H33" s="1">
-        <v>3000</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" customHeight="1" spans="3:9">
-      <c r="C34" s="1">
-        <v>28</v>
-      </c>
-      <c r="D34" s="1">
-        <v>2</v>
-      </c>
-      <c r="E34" s="1">
-        <f t="shared" si="0"/>
-        <v>1800</v>
-      </c>
-      <c r="F34" s="2">
-        <v>2010</v>
-      </c>
-      <c r="G34" s="1">
-        <v>10</v>
-      </c>
-      <c r="H34" s="1">
-        <v>3000</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" customHeight="1" spans="3:9">
-      <c r="C35" s="1">
-        <v>29</v>
-      </c>
-      <c r="D35" s="1">
-        <v>2</v>
-      </c>
-      <c r="E35" s="1">
-        <f t="shared" si="0"/>
-        <v>1900</v>
-      </c>
-      <c r="F35" s="2">
-        <v>2003</v>
-      </c>
-      <c r="G35" s="1">
-        <v>10</v>
-      </c>
-      <c r="H35" s="1">
-        <v>3000</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>16</v>
-      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" customHeight="1"/>
+    <row r="17" s="1" customFormat="1" customHeight="1"/>
+    <row r="18" s="1" customFormat="1" customHeight="1"/>
+    <row r="19" s="1" customFormat="1" customHeight="1"/>
+    <row r="20" customHeight="1" spans="8:14">
+      <c r="H20" s="1"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" customHeight="1" spans="8:14">
+      <c r="H21" s="1"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" customHeight="1" spans="8:14">
+      <c r="H22" s="1"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" customHeight="1" spans="8:14">
+      <c r="H23" s="1"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" customHeight="1" spans="8:14">
+      <c r="H24" s="1"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" customHeight="1" spans="8:14">
+      <c r="H25" s="1"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" customHeight="1" spans="8:14">
+      <c r="H26" s="1"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" customHeight="1" spans="8:14">
+      <c r="H27" s="1"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+    </row>
+    <row r="28" customHeight="1" spans="8:14">
+      <c r="H28" s="1"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" customHeight="1" spans="8:14">
+      <c r="H29" s="1"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+    </row>
+    <row r="30" customHeight="1" spans="8:14">
+      <c r="H30" s="1"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+    </row>
+    <row r="31" customHeight="1" spans="8:14">
+      <c r="H31" s="1"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+    </row>
+    <row r="32" customHeight="1" spans="8:14">
+      <c r="H32" s="1"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+    </row>
+    <row r="33" customHeight="1" spans="8:14">
+      <c r="H33" s="1"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+    </row>
+    <row r="34" customHeight="1" spans="8:14">
+      <c r="H34" s="1"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+    </row>
+    <row r="35" customHeight="1" spans="8:14">
+      <c r="H35" s="1"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3 E3 F3 G3 H3 D4 E4 F4 G4 H4 D5 E5 F5 G5 H5 C3:C5" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="D3:E3 F3 G3:H3 I3 J3:K3 L3 M3:N3 D4 E4 F4 G4 H4 I4 J4 K4 L4 M4 N4 D5 E5 F5 G5:H5 I5 J5:K5 L5 M5:N5 C3:C5" errorStyle="warning">
       <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>
